--- a/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
+++ b/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-minnesota\InputData\indst\CoNEPPpCAPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MN/indst/CoNEPPpCAPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523211FE-881E-F54D-87F4-09FF44F50FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="11325"/>
+    <workbookView xWindow="9880" yWindow="2900" windowWidth="24100" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Calculations" sheetId="2" r:id="rId6"/>
     <sheet name="CoNEPPpCAPS" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -346,12 +348,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -465,8 +467,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +476,7 @@
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -800,19 +802,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -820,7 +822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -828,12 +830,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -857,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>2018</v>
       </c>
@@ -865,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -873,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -881,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -889,12 +891,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K11" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>90</v>
       </c>
@@ -907,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -915,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -923,7 +925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -931,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -939,7 +941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -947,12 +949,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>95</v>
       </c>
@@ -965,7 +967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -973,7 +975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>2020</v>
       </c>
@@ -981,7 +983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -989,7 +991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -997,12 +999,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K24" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>97</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>98</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1047,12 +1049,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>91</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>2017</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>99</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1097,12 +1099,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K36" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>92</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>2020</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>100</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1147,12 +1149,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K42" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1184,45 +1186,45 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K47" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K48" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K52" s="16" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$3:$K$52</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1230,21 +1232,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.06640625" style="11"/>
-    <col min="3" max="3" width="10.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>80</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>30.015999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>3868395513.4538274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>937792851.74638259</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>215259743.12779689</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>4745831905.6198063</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>1043852757.5986518</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>1029199744.2901148</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>222935131.05131638</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>2682896960.5393162</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>1014895612.2508283</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>3196101307.6073699</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>382722752.3682223</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>737186121.92712295</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>701949113.7327832</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>854759109.66467154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>619962015.45882499</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>2354948567.4434829</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>981403010.40274334</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>263405358.28441918</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>204095542.51176852</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -1871,25 +1873,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>71538260</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>3235159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>4447022388</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>106146581</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>38409628157</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>3236274894</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>354373009</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>86735436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>2041382977</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>1471418848</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>19486239</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>13376592795</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>1654260723</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>3109408521</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>4172638418</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>3894112738</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>671143662</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>148943209</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>486333857</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>620678801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>212751178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>7100544178</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>8255844823</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>133723476</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>974039139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>305378235</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>1313711522</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>981291728</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>252195925</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>87619332</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>8096945031</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>9842752032</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>920728230</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>242085705</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>3940656963</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>527182098</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>2394966049</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>5397908731</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>14075892</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>126364285</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>1855798800</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -2225,7 +2227,7 @@
         <v>671035957</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>10096430281</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>2000043372</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>1942653953</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>1368686719</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>5333821684</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -2273,7 +2275,7 @@
         <v>58404272</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>23017794952</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2295,20 +2297,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.06640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18" style="17" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>77</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>30388</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>60218</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>69193</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>35322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>243273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>68391</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>11040.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>2183866</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>2197605</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>12790919</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>974631</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>190772</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +2539,7 @@
         <v>11464</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>679854</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>4441949</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>100562</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>1495511</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>86586</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>1378966</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>4248292</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>46888</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>1287187</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>1722207</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>561305</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>825030</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>158926</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>366121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>158926</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>74626</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>11040.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>164587</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2874,20 +2876,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.06640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>79</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>446750000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>487500000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>186750000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -3025,7 +3027,7 @@
         <v>630875000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>238500000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>1256000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>2135500000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>184750000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>65625000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>9875000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>5875000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>564625000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>407000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>176000000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>466625000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>41375000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>332625000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>209250000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>473875000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>1338125000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>88250000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>87875000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>1117750000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>133000000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>106750000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -3409,7 +3411,7 @@
         <v>43125000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>757250000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>181250000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>92625000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>259875000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>270375000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -3511,22 +3513,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
-    <col min="4" max="5" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>7.7196438360556785</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3603,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3621,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3644,25 +3646,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>

--- a/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
+++ b/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MN/indst/CoNEPPpCAPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-minnesota\InputData\indst\CoNEPPpCAPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523211FE-881E-F54D-87F4-09FF44F50FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="2900" windowWidth="24100" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Calculations" sheetId="2" r:id="rId6"/>
     <sheet name="CoNEPPpCAPS" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -348,12 +346,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -467,8 +465,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,7 +474,7 @@
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,19 +800,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -822,7 +820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -830,12 +828,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -859,7 +857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>2018</v>
       </c>
@@ -867,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -875,7 +873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -883,7 +881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -891,12 +889,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K11" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
         <v>90</v>
       </c>
@@ -909,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -917,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -925,7 +923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -933,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -941,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -949,12 +947,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
         <v>95</v>
       </c>
@@ -967,7 +965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -975,7 +973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <v>2020</v>
       </c>
@@ -983,7 +981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -991,7 +989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -999,12 +997,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K24" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="13" t="s">
         <v>97</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>98</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1049,12 +1047,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="13" t="s">
         <v>91</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>2017</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>99</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1099,12 +1097,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K36" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B37" s="13" t="s">
         <v>92</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <v>2020</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>100</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1149,12 +1147,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K42" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1186,45 +1184,45 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K47" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K48" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K49" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K50" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K51" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K52" s="16" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>$K$3:$K$52</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1232,21 +1230,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="11"/>
+    <col min="3" max="3" width="10.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>80</v>
       </c>
@@ -1260,7 +1258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1277,7 @@
         <v>30.015999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>3868395513.4538274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>937792851.74638259</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>215259743.12779689</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>4745831905.6198063</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -1435,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>1043852757.5986518</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -1507,7 +1505,7 @@
         <v>1029199744.2901148</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>222935131.05131638</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>2682896960.5393162</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>1014895612.2508283</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>3196101307.6073699</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>382722752.3682223</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -1699,7 +1697,7 @@
         <v>737186121.92712295</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>701949113.7327832</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -1735,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -1747,7 +1745,7 @@
         <v>854759109.66467154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>619962015.45882499</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>2354948567.4434829</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>981403010.40274334</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -1843,7 +1841,7 @@
         <v>263405358.28441918</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>204095542.51176852</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -1873,25 +1871,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>71538260</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>3235159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>4447022388</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>106146581</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>38409628157</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1939,7 +1937,7 @@
         <v>3236274894</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1947,7 +1945,7 @@
         <v>354373009</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>86735436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>2041382977</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>1471418848</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>19486239</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>13376592795</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +1993,7 @@
         <v>1654260723</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>3109408521</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>4172638418</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>3894112738</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>671143662</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2035,7 +2033,7 @@
         <v>148943209</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>486333857</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>620678801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>212751178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>7100544178</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>8255844823</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>133723476</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>974039139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>305378235</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>1313711522</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -2115,7 +2113,7 @@
         <v>981291728</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>252195925</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>87619332</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>8096945031</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>9842752032</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>920728230</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>242085705</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>3940656963</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>527182098</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -2187,7 +2185,7 @@
         <v>2394966049</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>5397908731</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>14075892</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -2211,7 +2209,7 @@
         <v>126364285</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -2219,7 +2217,7 @@
         <v>1855798800</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>671035957</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>10096430281</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v>2000043372</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>1942653953</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>1368686719</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>5333821684</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>58404272</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>23017794952</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2297,20 +2295,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.06640625" style="17" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B1" s="18" t="s">
         <v>77</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>30388</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>60218</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>69193</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>35322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>243273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -2395,7 +2393,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>68391</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -2451,7 +2449,7 @@
         <v>11040.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>2183866</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>2197605</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>12790919</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>974631</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>190772</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2539,7 +2537,7 @@
         <v>11464</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>679854</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>4441949</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>100562</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>1495511</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>86586</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>1378966</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -2660,7 +2658,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>4248292</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>46888</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>1287187</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>1722207</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>561305</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -2770,7 +2768,7 @@
         <v>825030</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>158926</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>366121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -2803,7 +2801,7 @@
         <v>158926</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -2814,7 +2812,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>74626</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>11040.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>164587</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2876,20 +2874,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>79</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +2917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>446750000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>487500000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -2979,7 +2977,7 @@
         <v>186750000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -3003,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>630875000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -3051,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>238500000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>1256000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>2135500000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>184750000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -3123,7 +3121,7 @@
         <v>65625000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -3147,7 +3145,7 @@
         <v>9875000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>5875000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>564625000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -3183,7 +3181,7 @@
         <v>407000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>176000000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>466625000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>41375000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>332625000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -3243,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>56</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>209250000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -3303,7 +3301,7 @@
         <v>473875000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>1338125000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>62</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>88250000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>87875000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>1117750000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>65</v>
       </c>
@@ -3375,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>133000000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>106750000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -3411,7 +3409,7 @@
         <v>43125000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>757250000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>70</v>
       </c>
@@ -3435,7 +3433,7 @@
         <v>181250000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>71</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>72</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>92625000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
@@ -3471,7 +3469,7 @@
         <v>259875000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>74</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -3495,7 +3493,7 @@
         <v>270375000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -3513,22 +3511,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="5" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
+    <col min="4" max="5" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3565,7 @@
         <v>7.7196438360556785</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3585,7 +3583,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3603,7 +3601,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3621,7 +3619,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3646,27 +3644,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
